--- a/data/trans_camb/P1002-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,09</t>
+          <t>-5,16</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 6,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -2,27</t>
+          <t>-9,68; -2,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,62; 17,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -1,49</t>
+          <t>-9,67; -1,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 10,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; -2,83</t>
+          <t>-7,87; -2,9</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-71,44%</t>
+          <t>-72,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-62,53%</t>
+          <t>-62,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-66,62%</t>
+          <t>-67,51%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,22; 130,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,69; -34,38</t>
+          <t>-92,89; -35,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,09; 313,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,72; -18,46</t>
+          <t>-82,02; -18,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,59; 165,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,72; -44,7</t>
+          <t>-82,46; -45,42</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,56</t>
+          <t>-4,02; 3,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 0,2</t>
+          <t>-7,85; 0,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,04</t>
+          <t>-4,63; 0,69</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,92%</t>
+          <t>-25,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-19,36%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 65,36</t>
+          <t>-44,58; 58,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 2,09</t>
+          <t>-46,26; 0,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 10,56</t>
+          <t>-36,79; 7,22</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,74</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,15</t>
+          <t>1,75; 7,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 5,69</t>
+          <t>0,21; 5,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,83</t>
+          <t>1,83; 5,7</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>383,71%</t>
+          <t>374,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>165,44%</t>
+          <t>161,63%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,58; 2077,36</t>
+          <t>32,92; 2035,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 283,04</t>
+          <t>3,14; 280,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,99; 402,6</t>
+          <t>48,08; 394,35</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,32</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,52</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>3,44</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,13</t>
+          <t>1,76; 7,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,83</t>
+          <t>1,44; 7,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,58</t>
+          <t>9,22; 18,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 8,24</t>
+          <t>-2,65; 6,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,18</t>
+          <t>6,36; 12,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,32</t>
+          <t>0,66; 6,34</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>335,98%</t>
+          <t>265,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>249,39%</t>
+          <t>247,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>192,43%</t>
+          <t>198,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>218,28%</t>
+          <t>211,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>101,18%</t>
+          <t>78,93%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>86,6; 1219,31</t>
+          <t>46,87; 1017,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,55; 1022,36</t>
+          <t>30,2; 1041,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,95; 352,01</t>
+          <t>100,97; 344,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 158,29</t>
+          <t>-33,44; 114,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>132,55; 401,45</t>
+          <t>118,84; 395,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,0; 213,97</t>
+          <t>13,51; 185,53</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 0,43</t>
+          <t>-7,26; 0,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 7,41</t>
+          <t>-1,1; 7,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-49,4%</t>
+          <t>-49,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>51,41%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,53; 15,99</t>
+          <t>-79,72; 14,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 230,57</t>
+          <t>-14,89; 234,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-34,9; 63,35</t>
+          <t>-35,05; 63,31</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 6,58</t>
+          <t>1,51; 6,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 6,36</t>
+          <t>-0,1; 6,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,74</t>
+          <t>1,53; 5,6</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>303,14%</t>
+          <t>295,05%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>142,24%</t>
+          <t>139,36%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>39,38; 1369,56</t>
+          <t>36,21; 1349,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 284,37</t>
+          <t>-5,92; 281,93</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>35,96; 351,26</t>
+          <t>34,12; 346,11</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,25</t>
+          <t>-0,11; 6,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,03</t>
+          <t>-5,36; 5,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,14</t>
+          <t>-1,98; 4,28</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>59,27%</t>
+          <t>56,42%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>26,38%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 161,58</t>
+          <t>-3,95; 156,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 75,46</t>
+          <t>-51,06; 60,47</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 78,65</t>
+          <t>-22,41; 66,5</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,12</t>
+          <t>-7,46; -0,93</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,9</t>
+          <t>3,23; 9,8</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,17</t>
+          <t>-3,41; 3,24</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-29,46%</t>
+          <t>-44,27%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>69,33%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>8,9%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 2,37</t>
+          <t>-78,19; -14,32</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>28,44; 125,15</t>
+          <t>29,06; 123,94</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 56,63</t>
+          <t>-35,87; 40,82</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,83</t>
+          <t>-1,17; 1,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,59</t>
+          <t>-0,52; 2,82</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,55</t>
+          <t>-0,35; 1,96</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 39,53</t>
+          <t>-21,23; 30,35</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,78; 45,82</t>
+          <t>-5,46; 35,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,38; 39,63</t>
+          <t>-4,96; 30,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1002-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1002-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 6,0</t>
+          <t>-2,78; 6,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 6,47</t>
+          <t>-3,09; 6,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -2,32</t>
+          <t>-8,81; -1,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 17,88</t>
+          <t>5,79; 17,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,75; 17,4</t>
+          <t>5,93; 17,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -1,47</t>
+          <t>-9,12; -1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 10,51</t>
+          <t>2,9; 10,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,59</t>
+          <t>2,85; 10,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -2,9</t>
+          <t>-7,75; -2,6</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 130,51</t>
+          <t>-30,11; 137,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,6; 123,89</t>
+          <t>-33,33; 127,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,89; -35,11</t>
+          <t>-91,13; -31,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,09; 313,64</t>
+          <t>49,06; 297,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,99; 312,35</t>
+          <t>49,23; 321,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,02; -18,56</t>
+          <t>-80,99; -9,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,59; 165,6</t>
+          <t>27,43; 165,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,51; 178,08</t>
+          <t>30,1; 177,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,46; -45,42</t>
+          <t>-81,88; -41,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,21</t>
+          <t>-3,01; 4,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; -2,05</t>
+          <t>-7,51; -1,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,22</t>
+          <t>-3,8; 3,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 4,89</t>
+          <t>-4,71; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -2,64</t>
+          <t>-10,51; -2,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 0,08</t>
+          <t>-7,65; 0,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,26</t>
+          <t>-2,53; 3,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -3,25</t>
+          <t>-8,03; -3,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,69</t>
+          <t>-4,67; 0,41</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 75,26</t>
+          <t>-34,27; 75,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,53; -36,61</t>
+          <t>-82,11; -30,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 58,08</t>
+          <t>-41,63; 60,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 38,86</t>
+          <t>-27,78; 34,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,38; -20,92</t>
+          <t>-61,88; -18,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 0,79</t>
+          <t>-45,52; 2,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 33,8</t>
+          <t>-20,19; 35,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,74; -31,71</t>
+          <t>-63,21; -29,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 7,22</t>
+          <t>-38,07; 4,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 7,6</t>
+          <t>1,5; 7,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,98</t>
+          <t>-1,16; 2,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,03</t>
+          <t>1,86; 7,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,67</t>
+          <t>3,69; 11,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,84</t>
+          <t>-1,6; 4,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 5,59</t>
+          <t>-0,0; 5,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,44</t>
+          <t>3,76; 8,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,1</t>
+          <t>-0,5; 3,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,7</t>
+          <t>1,75; 5,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,92; 2131,24</t>
+          <t>41,9; 1980,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,86; 862,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,92; 2035,66</t>
+          <t>30,14; 2023,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,46; 503,11</t>
+          <t>65,21; 600,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 264,12</t>
+          <t>-38,29; 237,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,14; 280,86</t>
+          <t>-3,22; 251,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>99,89; 573,65</t>
+          <t>105,5; 575,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 187,14</t>
+          <t>-23,77; 222,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,08; 394,35</t>
+          <t>44,93; 364,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,35</t>
+          <t>1,68; 7,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,42</t>
+          <t>4,04; 10,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,73</t>
+          <t>1,46; 7,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 18,89</t>
+          <t>8,28; 18,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 16,7</t>
+          <t>6,43; 17,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,18</t>
+          <t>-2,24; 6,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 12,15</t>
+          <t>6,29; 12,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,37</t>
+          <t>6,72; 12,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 6,34</t>
+          <t>0,79; 6,33</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,87; 1017,36</t>
+          <t>30,44; 880,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>114,73; 1423,56</t>
+          <t>120,46; 1291,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,2; 1041,77</t>
+          <t>20,17; 907,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>100,97; 344,56</t>
+          <t>86,45; 351,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,19; 330,37</t>
+          <t>66,11; 332,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 114,72</t>
+          <t>-27,0; 127,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>118,84; 395,0</t>
+          <t>113,36; 392,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>113,44; 383,23</t>
+          <t>111,29; 371,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,51; 185,53</t>
+          <t>13,88; 173,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,52</t>
+          <t>-6,05; 2,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,79</t>
+          <t>-6,03; 2,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 0,37</t>
+          <t>-7,03; 0,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,61; 17,68</t>
+          <t>5,72; 17,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 6,55</t>
+          <t>-3,2; 6,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 7,55</t>
+          <t>-1,31; 7,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,66</t>
+          <t>1,06; 8,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,43</t>
+          <t>-2,97; 3,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,8</t>
+          <t>-3,05; 2,75</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-72,13; 74,05</t>
+          <t>-71,87; 75,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,38; 55,18</t>
+          <t>-72,81; 68,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,72; 14,24</t>
+          <t>-77,11; 33,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>56,87; 447,63</t>
+          <t>54,79; 465,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 183,96</t>
+          <t>-40,53; 183,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 234,14</t>
+          <t>-21,34; 187,4</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,53; 190,09</t>
+          <t>11,47; 189,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 74,56</t>
+          <t>-38,99; 63,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 63,31</t>
+          <t>-37,02; 64,12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,85; 9,61</t>
+          <t>2,93; 9,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,68</t>
+          <t>3,19; 10,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,46</t>
+          <t>1,58; 6,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,94</t>
+          <t>2,1; 11,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,06</t>
+          <t>4,09; 13,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 6,34</t>
+          <t>-0,33; 6,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,23</t>
+          <t>3,54; 8,93</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,0</t>
+          <t>4,8; 11,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,6</t>
+          <t>1,68; 5,65</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>69,39; 1924,7</t>
+          <t>72,35; 1852,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>101,06; 2297,24</t>
+          <t>94,49; 1989,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>36,21; 1349,15</t>
+          <t>37,39; 1258,78</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>41,17; 489,69</t>
+          <t>33,22; 531,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>60,51; 600,87</t>
+          <t>51,37; 639,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 281,93</t>
+          <t>-14,46; 275,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>99,72; 550,43</t>
+          <t>81,23; 531,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>123,69; 667,18</t>
+          <t>122,38; 612,3</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>34,12; 346,11</t>
+          <t>44,02; 355,89</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,3</t>
+          <t>-3,25; 1,67</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,69</t>
+          <t>-1,56; 3,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,11</t>
+          <t>0,06; 5,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,05</t>
+          <t>-5,07; 1,4</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,95</t>
+          <t>-0,63; 6,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 5,21</t>
+          <t>-5,52; 5,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,83</t>
+          <t>-3,46; 0,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 4,02</t>
+          <t>-0,47; 3,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 4,28</t>
+          <t>-2,21; 4,48</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-54,32; 34,69</t>
+          <t>-50,96; 45,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 90,79</t>
+          <t>-25,62; 102,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 156,62</t>
+          <t>-6,05; 149,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 15,16</t>
+          <t>-45,44; 19,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 75,42</t>
+          <t>-5,69; 77,4</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 60,47</t>
+          <t>-49,08; 59,09</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 12,79</t>
+          <t>-41,23; 7,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 65,94</t>
+          <t>-6,17; 60,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 66,5</t>
+          <t>-23,7; 68,74</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,79</t>
+          <t>-2,14; 3,79</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -1,14</t>
+          <t>-6,08; -1,18</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,93</t>
+          <t>-7,14; -0,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,1</t>
+          <t>2,84; 9,48</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,54</t>
+          <t>-5,32; 0,42</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,8</t>
+          <t>3,04; 9,57</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,86</t>
+          <t>1,33; 5,79</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -1,09</t>
+          <t>-4,76; -0,95</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,24</t>
+          <t>-3,71; 3,06</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 58,22</t>
+          <t>-23,57; 63,11</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-65,49; -17,84</t>
+          <t>-64,41; -16,85</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-78,19; -14,32</t>
+          <t>-77,24; -11,13</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>23,59; 116,22</t>
+          <t>25,59; 124,65</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 7,8</t>
+          <t>-48,4; 5,26</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>29,06; 123,94</t>
+          <t>27,26; 124,35</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>13,77; 79,56</t>
+          <t>14,1; 79,35</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-49,52; -14,68</t>
+          <t>-50,24; -12,15</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 40,82</t>
+          <t>-39,02; 38,36</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,73</t>
+          <t>0,42; 2,86</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,23</t>
+          <t>-0,88; 1,29</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,46</t>
+          <t>-1,11; 1,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,87; 6,87</t>
+          <t>4,08; 7,06</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,72</t>
+          <t>0,82; 3,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,82</t>
+          <t>-0,58; 2,84</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,59; 4,51</t>
+          <t>2,63; 4,54</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,11</t>
+          <t>0,25; 2,06</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,96</t>
+          <t>-0,31; 1,87</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,09; 58,56</t>
+          <t>7,52; 61,43</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 26,31</t>
+          <t>-14,78; 28,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 30,35</t>
+          <t>-19,51; 30,5</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>40,8; 87,43</t>
+          <t>44,25; 89,79</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,9; 47,83</t>
+          <t>8,2; 45,48</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 35,87</t>
+          <t>-5,69; 35,68</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>35,23; 70,43</t>
+          <t>36,21; 71,56</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>4,04; 32,98</t>
+          <t>3,46; 31,8</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 30,15</t>
+          <t>-3,77; 28,85</t>
         </is>
       </c>
     </row>
